--- a/Testfall.xlsx
+++ b/Testfall.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\brippp\Desktop\BBC Ordner\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Definition-of-Dank\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Rippstein Philip</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rippstein Philip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Diese Spalte muss vom Tester ergänzt werden.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rippstein Philip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Diese Spalte muss vom Tester ergänzt werden.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Testfälle</t>
   </si>
@@ -47,9 +105,6 @@
     <t>Benutzer Registrieren</t>
   </si>
   <si>
-    <t>benutzer Registrieren mit falscher E-Mail</t>
-  </si>
-  <si>
     <t>Fehler ausgabe</t>
   </si>
   <si>
@@ -75,13 +130,85 @@
   </si>
   <si>
     <t>Fehlermeldung und Anmelden war erfolgslos</t>
+  </si>
+  <si>
+    <t>User war zu finden</t>
+  </si>
+  <si>
+    <t>Fehler tratt auf</t>
+  </si>
+  <si>
+    <t>Auf der seite Feed sind Bilder zu sehen</t>
+  </si>
+  <si>
+    <t>Bilder wurden dargestellt</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>Klicken Sie auf Threads und schauen Sie ob es Inhalte ladet.</t>
+  </si>
+  <si>
+    <t>Bilder wurden ausgegeben in 3er Reihe</t>
+  </si>
+  <si>
+    <t>Threads Testing</t>
+  </si>
+  <si>
+    <t>Feed Testing</t>
+  </si>
+  <si>
+    <t>Anmelden Testing</t>
+  </si>
+  <si>
+    <t>Benutzer Registrieren Testing</t>
+  </si>
+  <si>
+    <t>Melden Sie sich mit einem falschen passwort beim User Test1 ein</t>
+  </si>
+  <si>
+    <t>Index testing</t>
+  </si>
+  <si>
+    <t>öffnen sie definition-of-dank und schauen Sie ob Einträge auftauchen.</t>
+  </si>
+  <si>
+    <t>Eine Ausgabe mit einem Bild und Text.</t>
+  </si>
+  <si>
+    <t>erfolgreiche ausgabe</t>
+  </si>
+  <si>
+    <t>Klicken Sie auf Feed und schauen sie ob  der link auf "/feed " wechselt</t>
+  </si>
+  <si>
+    <t>schauen Sie ob feed Inhalte ladet.</t>
+  </si>
+  <si>
+    <t>erfolgreiche weiterleitung</t>
+  </si>
+  <si>
+    <t>wurde weitergeleitet</t>
+  </si>
+  <si>
+    <t>Threads link Testing</t>
+  </si>
+  <si>
+    <t>benutzer Registrieren mit ungültiger E-Mail</t>
+  </si>
+  <si>
+    <t>Fehlermeldung</t>
+  </si>
+  <si>
+    <t>wurde angezeigt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +222,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -128,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,21 +276,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -431,142 +595,296 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -574,5 +892,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>